--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.453693572379654</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H2">
-        <v>0.453693572379654</v>
+        <v>1.894663</v>
       </c>
       <c r="I2">
-        <v>0.4028363331985583</v>
+        <v>0.4681870832749024</v>
       </c>
       <c r="J2">
-        <v>0.4028363331985583</v>
+        <v>0.5690659591172773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>48.02653037849986</v>
+        <v>67.99508850333933</v>
       </c>
       <c r="R2">
-        <v>48.02653037849986</v>
+        <v>407.970531020036</v>
       </c>
       <c r="S2">
-        <v>0.1135168347554345</v>
+        <v>0.128836823109561</v>
       </c>
       <c r="T2">
-        <v>0.1135168347554345</v>
+        <v>0.117064361637481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.453693572379654</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H3">
-        <v>0.453693572379654</v>
+        <v>1.894663</v>
       </c>
       <c r="I3">
-        <v>0.4028363331985583</v>
+        <v>0.4681870832749024</v>
       </c>
       <c r="J3">
-        <v>0.4028363331985583</v>
+        <v>0.5690659591172773</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>11.64586986019277</v>
+        <v>17.31199518151844</v>
       </c>
       <c r="R3">
-        <v>11.64586986019277</v>
+        <v>155.807956633666</v>
       </c>
       <c r="S3">
-        <v>0.0275264999175252</v>
+        <v>0.03280269957682789</v>
       </c>
       <c r="T3">
-        <v>0.0275264999175252</v>
+        <v>0.0447080305917112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.453693572379654</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H4">
-        <v>0.453693572379654</v>
+        <v>1.894663</v>
       </c>
       <c r="I4">
-        <v>0.4028363331985583</v>
+        <v>0.4681870832749024</v>
       </c>
       <c r="J4">
-        <v>0.4028363331985583</v>
+        <v>0.5690659591172773</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>34.38728982980941</v>
+        <v>51.97940174720033</v>
       </c>
       <c r="R4">
-        <v>34.38728982980941</v>
+        <v>467.814615724803</v>
       </c>
       <c r="S4">
-        <v>0.08127874877768004</v>
+        <v>0.09849036357848057</v>
       </c>
       <c r="T4">
-        <v>0.08127874877768004</v>
+        <v>0.1342362136245031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.453693572379654</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H5">
-        <v>0.453693572379654</v>
+        <v>1.894663</v>
       </c>
       <c r="I5">
-        <v>0.4028363331985583</v>
+        <v>0.4681870832749024</v>
       </c>
       <c r="J5">
-        <v>0.4028363331985583</v>
+        <v>0.5690659591172773</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>31.75821921484327</v>
+        <v>45.01241138214233</v>
       </c>
       <c r="R5">
-        <v>31.75821921484327</v>
+        <v>405.111702439281</v>
       </c>
       <c r="S5">
-        <v>0.07506460479918674</v>
+        <v>0.08528933795991826</v>
       </c>
       <c r="T5">
-        <v>0.07506460479918674</v>
+        <v>0.1162440402726012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.453693572379654</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H6">
-        <v>0.453693572379654</v>
+        <v>1.894663</v>
       </c>
       <c r="I6">
-        <v>0.4028363331985583</v>
+        <v>0.4681870832749024</v>
       </c>
       <c r="J6">
-        <v>0.4028363331985583</v>
+        <v>0.5690659591172773</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>35.97704380593128</v>
+        <v>52.58109977046156</v>
       </c>
       <c r="R6">
-        <v>35.97704380593128</v>
+        <v>473.229897934154</v>
       </c>
       <c r="S6">
-        <v>0.08503633521973562</v>
+        <v>0.09963045859849766</v>
       </c>
       <c r="T6">
-        <v>0.08503633521973562</v>
+        <v>0.1357900919238486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.453693572379654</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H7">
-        <v>0.453693572379654</v>
+        <v>1.894663</v>
       </c>
       <c r="I7">
-        <v>0.4028363331985583</v>
+        <v>0.4681870832749024</v>
       </c>
       <c r="J7">
-        <v>0.4028363331985583</v>
+        <v>0.5690659591172773</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>8.636432137466981</v>
+        <v>12.2110244064855</v>
       </c>
       <c r="R7">
-        <v>8.636432137466981</v>
+        <v>73.26614643891301</v>
       </c>
       <c r="S7">
-        <v>0.02041330972899622</v>
+        <v>0.02313740045161705</v>
       </c>
       <c r="T7">
-        <v>0.02041330972899622</v>
+        <v>0.02102322106713225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.672554322831993</v>
+        <v>0.7173815</v>
       </c>
       <c r="H8">
-        <v>0.672554322831993</v>
+        <v>1.434763</v>
       </c>
       <c r="I8">
-        <v>0.5971636668014417</v>
+        <v>0.5318129167250975</v>
       </c>
       <c r="J8">
-        <v>0.5971636668014417</v>
+        <v>0.4309340408827227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>71.19441972092315</v>
+        <v>77.235506129309</v>
       </c>
       <c r="R8">
-        <v>71.19441972092315</v>
+        <v>308.942024517236</v>
       </c>
       <c r="S8">
-        <v>0.1682770984136523</v>
+        <v>0.1463455296549912</v>
       </c>
       <c r="T8">
-        <v>0.1682770984136523</v>
+        <v>0.08864880704171513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.672554322831993</v>
+        <v>0.7173815</v>
       </c>
       <c r="H9">
-        <v>0.672554322831993</v>
+        <v>1.434763</v>
       </c>
       <c r="I9">
-        <v>0.5971636668014417</v>
+        <v>0.5318129167250975</v>
       </c>
       <c r="J9">
-        <v>0.5971636668014417</v>
+        <v>0.4309340408827227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>17.2638110708282</v>
+        <v>19.66466607197767</v>
       </c>
       <c r="R9">
-        <v>17.2638110708282</v>
+        <v>117.987996431866</v>
       </c>
       <c r="S9">
-        <v>0.04080522105451873</v>
+        <v>0.03726053101761236</v>
       </c>
       <c r="T9">
-        <v>0.04080522105451873</v>
+        <v>0.03385585093278084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.672554322831993</v>
+        <v>0.7173815</v>
       </c>
       <c r="H10">
-        <v>0.672554322831993</v>
+        <v>1.434763</v>
       </c>
       <c r="I10">
-        <v>0.5971636668014417</v>
+        <v>0.5318129167250975</v>
       </c>
       <c r="J10">
-        <v>0.5971636668014417</v>
+        <v>0.4309340408827227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>50.97564046193241</v>
+        <v>59.0433146071505</v>
       </c>
       <c r="R10">
-        <v>50.97564046193241</v>
+        <v>354.259887642903</v>
       </c>
       <c r="S10">
-        <v>0.120487432868149</v>
+        <v>0.1118750375546613</v>
       </c>
       <c r="T10">
-        <v>0.120487432868149</v>
+        <v>0.1016524588111622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.672554322831993</v>
+        <v>0.7173815</v>
       </c>
       <c r="H11">
-        <v>0.672554322831993</v>
+        <v>1.434763</v>
       </c>
       <c r="I11">
-        <v>0.5971636668014417</v>
+        <v>0.5318129167250975</v>
       </c>
       <c r="J11">
-        <v>0.5971636668014417</v>
+        <v>0.4309340408827227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>47.07831214438151</v>
+        <v>51.1295220246635</v>
       </c>
       <c r="R11">
-        <v>47.07831214438151</v>
+        <v>306.777132147981</v>
       </c>
       <c r="S11">
-        <v>0.1112755999265557</v>
+        <v>0.09688001486231552</v>
       </c>
       <c r="T11">
-        <v>0.1112755999265557</v>
+        <v>0.08802760594028498</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.672554322831993</v>
+        <v>0.7173815</v>
       </c>
       <c r="H12">
-        <v>0.672554322831993</v>
+        <v>1.434763</v>
       </c>
       <c r="I12">
-        <v>0.5971636668014417</v>
+        <v>0.5318129167250975</v>
       </c>
       <c r="J12">
-        <v>0.5971636668014417</v>
+        <v>0.4309340408827227</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>53.33228815097085</v>
+        <v>59.72678237499233</v>
       </c>
       <c r="R12">
-        <v>53.33228815097085</v>
+        <v>358.360694249954</v>
       </c>
       <c r="S12">
-        <v>0.1260576704885855</v>
+        <v>0.1131700695613069</v>
       </c>
       <c r="T12">
-        <v>0.1260576704885855</v>
+        <v>0.1028291573007637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.672554322831993</v>
+        <v>0.7173815</v>
       </c>
       <c r="H13">
-        <v>0.672554322831993</v>
+        <v>1.434763</v>
       </c>
       <c r="I13">
-        <v>0.5971636668014417</v>
+        <v>0.5318129167250975</v>
       </c>
       <c r="J13">
-        <v>0.5971636668014417</v>
+        <v>0.4309340408827227</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>12.80262741531193</v>
+        <v>13.87048198850325</v>
       </c>
       <c r="R13">
-        <v>12.80262741531193</v>
+        <v>55.48192795401301</v>
       </c>
       <c r="S13">
-        <v>0.03026064404998052</v>
+        <v>0.02628173407421011</v>
       </c>
       <c r="T13">
-        <v>0.03026064404998052</v>
+        <v>0.01592016085601601</v>
       </c>
     </row>
   </sheetData>
